--- a/datamining/final_data/topic7_candidates.xlsx
+++ b/datamining/final_data/topic7_candidates.xlsx
@@ -436,1007 +436,1007 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('한계', '극복')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.31568</v>
+        <v>0.9016591666666666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('흥미', '유발')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.13461</v>
+        <v>0.6804686666666666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('기회', '제공')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.44695</v>
+        <v>0.6483776666666666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('기술', '발달')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.24495</v>
+        <v>0.5873331666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('수정', '보완')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.14557</v>
+        <v>0.5859366666666666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('동기', '유발')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.19537</v>
+        <v>0.5725695</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('설계', '구현')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4055</v>
+        <v>0.4961181666666666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.14183</v>
+        <v>0.4723214999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('긍정', '반응')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08137999999999999</v>
+        <v>0.4458961666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('도움', '기대')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09179</v>
+        <v>0.4311221666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('부족', '실정')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.30765</v>
+        <v>0.4154268333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('학기', '동안')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.082</v>
+        <v>0.4141021666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('방안', '모색')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.52496</v>
+        <v>0.4076061666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('목적', '달성')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.47342</v>
+        <v>0.3902401666666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('학교', '현장')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.22643</v>
+        <v>0.3845085</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('설문', '조사')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06757000000000001</v>
+        <v>0.3597158333333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('프레임', '임워크')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.32222</v>
+        <v>0.3568278333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('혁명', '시대')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.14644</v>
+        <v>0.3565423333333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('시사점', '도출')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.34104</v>
+        <v>0.3554111666666666</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('스마트', '기기')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.46136</v>
+        <v>0.3516648333333333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('핵심', '역량')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.11844</v>
+        <v>0.3491166666666666</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.17529</v>
+        <v>0.3289381666666666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.11738</v>
+        <v>0.3087471666666667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('기여', '기대')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.08037</v>
+        <v>0.2913075</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('긍정', '영향')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.20157</v>
+        <v>0.2851465</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('자기', '주도')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.23224</v>
+        <v>0.2838603333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('개선', '방안')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.07189</v>
+        <v>0.2760558333333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('디지털', '리터러시')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.13169</v>
+        <v>0.2706116666666666</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('디지털', '스토리텔링')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.27163</v>
+        <v>0.265665</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('주도', '학습력')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.17671</v>
+        <v>0.2616858333333333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('문제', '해결')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.21719</v>
+        <v>0.2606315</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.22825</v>
+        <v>0.2539773333333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('지식', '창출')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.29318</v>
+        <v>0.2509741666666667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.65862</v>
+        <v>0.2495011666666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('통신', '기술')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.10094</v>
+        <v>0.2488645</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('주의', '집중')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.02582</v>
+        <v>0.239105</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('학급', '홈페이지')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.14868</v>
+        <v>0.2309213333333333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('요구', '사항')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.26027</v>
+        <v>0.2195713333333333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('사이버', '상담실')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.16935</v>
+        <v>0.218413</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('사회', '연결망')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.10394</v>
+        <v>0.205689</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.15065</v>
+        <v>0.2039458333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('컴퓨팅', '사고')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.24084</v>
+        <v>0.2029838333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('집단', '통제')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02983</v>
+        <v>0.1992058333333333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.44751</v>
+        <v>0.199116</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('재량', '활동')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.48424</v>
+        <v>0.1902556666666667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('운영', '체제')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.26471</v>
+        <v>0.1875126666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('유의미', '차이')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.20104</v>
+        <v>0.1829415</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('예비', '교원')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.11811</v>
+        <v>0.1773851666666667</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('사후', '검사')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.08838</v>
+        <v>0.1757143333333333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('성격', '유형')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.19119</v>
+        <v>0.1721238333333333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('유의', '차이')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.00213</v>
+        <v>0.1713266666666667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('학업', '성취도')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.30686</v>
+        <v>0.1676118333333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('비판', '사고력')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.21728</v>
+        <v>0.1667168333333333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.30461</v>
+        <v>0.1654315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('학업', '성취')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2519</v>
+        <v>0.1626658333333333</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('실험', '집단')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.46369</v>
+        <v>0.156514</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('통계', '유의')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.23463</v>
+        <v>0.1558946666666667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('문제', '해결능력')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.50114</v>
+        <v>0.155782</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('상관', '관계')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.06327000000000001</v>
+        <v>0.151595</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('표준', '모델')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.53266</v>
+        <v>0.1464785</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('피지컬', '컴퓨팅')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.38166</v>
+        <v>0.144752</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('통제', '집단')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.78294</v>
+        <v>0.143303</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('예비', '교사')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.24016</v>
+        <v>0.1365526666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('원격', '연수')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.21781</v>
+        <v>0.1337978333333333</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('통계', '유의미')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.29104</v>
+        <v>0.1316395</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('중독', '치료')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.31947</v>
+        <v>0.1303943333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('문제', '해결력')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.06512</v>
+        <v>0.1288558333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('정보', '통신')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.27785</v>
+        <v>0.1258118333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.30013</v>
+        <v>0.1231221666666667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('addie', '모형')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.08669</v>
+        <v>0.1184855</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.09968</v>
+        <v>0.1155496666666667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('논리', '사고력')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.53881</v>
+        <v>0.1118536666666667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('다중', '지능')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.19484</v>
+        <v>0.1109831666666667</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.16181</v>
+        <v>0.104346</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('디자인', '사고')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.13169</v>
+        <v>0.09954916666666667</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('영재', '판별')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1724</v>
+        <v>0.09520716666666668</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('성취', '기준')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.05732</v>
+        <v>0.09393466666666667</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('윤리', '의식')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.69561</v>
+        <v>0.0862385</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('공공', '서비스')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.55753</v>
+        <v>0.08277100000000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('ict', '리터러시')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.22512</v>
+        <v>0.07486816666666668</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('자기', '효능감')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.22132</v>
+        <v>0.07395266666666667</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('문헌', '고찰')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.16048</v>
+        <v>0.07253333333333332</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('사이버', '정학습')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.50242</v>
+        <v>0.07027466666666667</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('인터넷', '중독')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.32743</v>
+        <v>0.067204</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.6880500000000001</v>
+        <v>0.0663565</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('코딩', '강사')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.30431</v>
+        <v>0.065634</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.76805</v>
+        <v>0.06234616666666667</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('자기', '조절')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.03614</v>
+        <v>0.05937666666666666</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('통신', '윤리')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.08166</v>
+        <v>0.05245866666666666</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('게임', '중독')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.46615</v>
+        <v>0.04642033333333334</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.25919</v>
+        <v>0.04509733333333334</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('정렬', '알고리즘')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.52856</v>
+        <v>0.04262433333333333</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('지속', '의향')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.38074</v>
+        <v>0.04164783333333333</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('사회', '실재감')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.15849</v>
+        <v>0.03439583333333333</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('데이터', '시각')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.29633</v>
+        <v>0.03062233333333333</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('표본', '검정')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.0572</v>
+        <v>0.02544966666666665</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('과제', '표절')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.43653</v>
+        <v>0.02053266666666666</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('iptv', '유아')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.26082</v>
+        <v>0.0186115</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.2224</v>
+        <v>0.01585883333333335</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('과제', '가치')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.42445</v>
+        <v>0.01472316666666667</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic7_candidates.xlsx
+++ b/datamining/final_data/topic7_candidates.xlsx
@@ -442,71 +442,71 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('기술', '의', '발달')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9016591666666666</v>
+        <v>0.6494883333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('중', '의', '하나')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6804686666666666</v>
+        <v>0.632817</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6483776666666666</v>
+        <v>0.5941288333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('ㄴ', '형태', '의')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5873331666666667</v>
+        <v>0.5185291666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('얻', '을', '수')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5859366666666666</v>
+        <v>0.5011341666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('있', '을', '것')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5725695</v>
+        <v>0.4941325</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('도움', '주', 'ㄹ')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4961181666666666</v>
+        <v>0.4933928333333333</v>
       </c>
     </row>
     <row r="9">
@@ -516,137 +516,137 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4723214999999999</v>
+        <v>0.4732755</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('는', '데', '있')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4458961666666666</v>
+        <v>0.4700353333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('이', '같', '은')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4311221666666667</v>
+        <v>0.4579195</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4154268333333333</v>
+        <v>0.4142913333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('다는', '점', '의의')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4141021666666667</v>
+        <v>0.4022396666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('학습자', '중심', '의')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4076061666666667</v>
+        <v>0.3926716666666666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('수준', '맞', '는')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3902401666666667</v>
+        <v>0.391329</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3845085</v>
+        <v>0.3788278333333333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('의', '자기', '주도')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3597158333333333</v>
+        <v>0.3712303333333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('연구', '제시', 'ㄴ')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3568278333333333</v>
+        <v>0.3604145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3565423333333333</v>
+        <v>0.3529153333333334</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('ㄴ', '기초', '자료')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3554111666666666</v>
+        <v>0.3490993333333333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3516648333333333</v>
+        <v>0.3391408333333333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3491166666666666</v>
+        <v>0.3380125</v>
       </c>
     </row>
     <row r="23">
@@ -656,787 +656,787 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3289381666666666</v>
+        <v>0.3299821666666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3087471666666667</v>
+        <v>0.3287463333333333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2913075</v>
+        <v>0.3285248333333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('ㄹ', '필요', '있')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2851465</v>
+        <v>0.3190685</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('예비', '교원', '의')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2838603333333333</v>
+        <v>0.3159098333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('ㄴ', '인재', '양성')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2760558333333333</v>
+        <v>0.311336</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2706116666666666</v>
+        <v>0.3095598333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('찾', '을', '수')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.265665</v>
+        <v>0.3078083333333333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2616858333333333</v>
+        <v>0.3029298333333333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('ㄴ', '관심', '높')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2606315</v>
+        <v>0.302825</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2539773333333333</v>
+        <v>0.297237</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2509741666666667</v>
+        <v>0.2941888333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2495011666666667</v>
+        <v>0.2856438333333334</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2488645</v>
+        <v>0.280551</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.239105</v>
+        <v>0.2777275</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2309213333333333</v>
+        <v>0.2727291666666667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('유', '미', 'ㄴ')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2195713333333333</v>
+        <v>0.2724956666666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.218413</v>
+        <v>0.2710826666666667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.205689</v>
+        <v>0.2657258333333333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('향상', '긍정', 'ㄴ')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2039458333333333</v>
+        <v>0.2616528333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('분석', '분석', '결과')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2029838333333333</v>
+        <v>0.2592571666666666</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1992058333333333</v>
+        <v>0.2581425</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.199116</v>
+        <v>0.2519456666666666</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1902556666666667</v>
+        <v>0.250007</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1875126666666667</v>
+        <v>0.244402</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1829415</v>
+        <v>0.2442385</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1773851666666667</v>
+        <v>0.212729</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1757143333333333</v>
+        <v>0.2072218333333334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1721238333333333</v>
+        <v>0.2045608333333334</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1713266666666667</v>
+        <v>0.2018648333333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1676118333333333</v>
+        <v>0.2018648333333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1667168333333333</v>
+        <v>0.199497</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1654315</v>
+        <v>0.1980871666666666</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1626658333333333</v>
+        <v>0.1957355</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.156514</v>
+        <v>0.178455</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('것', '알', 'ㄹ')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1558946666666667</v>
+        <v>0.1766698333333333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('그리', 'ㄴ', 'it')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.155782</v>
+        <v>0.1754901666666667</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('는', '영향', '분석')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.151595</v>
+        <v>0.1706303333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1464785</v>
+        <v>0.1699165</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.144752</v>
+        <v>0.1699101666666667</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.143303</v>
+        <v>0.1660396666666666</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1365526666666667</v>
+        <v>0.1659685</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1337978333333333</v>
+        <v>0.1654193333333333</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('영향', '주', '는')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1316395</v>
+        <v>0.1626593333333334</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1303943333333333</v>
+        <v>0.1570435</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1288558333333333</v>
+        <v>0.1528328333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1258118333333333</v>
+        <v>0.1510233333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1231221666666667</v>
+        <v>0.1490165</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1184855</v>
+        <v>0.1404466666666667</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('초점', '맞추', 'ㄴ')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1155496666666667</v>
+        <v>0.1398228333333333</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1118536666666667</v>
+        <v>0.1368481666666667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('의', '스', '마')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1109831666666667</v>
+        <v>0.1334133333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.104346</v>
+        <v>0.1326365</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.09954916666666667</v>
+        <v>0.1322146666666666</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.09520716666666668</v>
+        <v>0.129634</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.09393466666666667</v>
+        <v>0.1247476666666667</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0862385</v>
+        <v>0.1234255</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.08277100000000001</v>
+        <v>0.123287</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.07486816666666668</v>
+        <v>0.1220291666666667</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.07395266666666667</v>
+        <v>0.1144965</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.07253333333333332</v>
+        <v>0.1140886666666667</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.07027466666666667</v>
+        <v>0.1123051666666667</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.067204</v>
+        <v>0.104346</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.0663565</v>
+        <v>0.09689383333333333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.065634</v>
+        <v>0.09577516666666666</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.06234616666666667</v>
+        <v>0.08482633333333334</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.05937666666666666</v>
+        <v>0.08095533333333332</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.05245866666666666</v>
+        <v>0.06633549999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.04642033333333334</v>
+        <v>0.06234616666666667</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.04509733333333334</v>
+        <v>0.04880183333333334</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.04262433333333333</v>
+        <v>0.0431465</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.04164783333333333</v>
+        <v>0.04156366666666667</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.03439583333333333</v>
+        <v>0.03805266666666667</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.03062233333333333</v>
+        <v>0.02544966666666665</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.02544966666666665</v>
+        <v>0.020741</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.02053266666666666</v>
+        <v>0.01585883333333335</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.0186115</v>
+        <v>0.01585883333333335</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.01585883333333335</v>
+        <v>0.008718333333333331</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('로봇', '활용', 'sw')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.01472316666666667</v>
+        <v>0.003549499999999997</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic7_candidates.xlsx
+++ b/datamining/final_data/topic7_candidates.xlsx
@@ -442,911 +442,911 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('기술', '의', '발달')</t>
+          <t>('간', '상호', '작용')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6494883333333333</v>
+        <v>0.8744115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('중', '의', '하나')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.632817</v>
+        <v>0.5941288333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5941288333333333</v>
+        <v>0.5869686666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '형태', '의')</t>
+          <t>('다음', '같')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5185291666666667</v>
+        <v>0.568974</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('얻', '을', '수')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5011341666666667</v>
+        <v>0.5269043333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('있', '을', '것')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4941325</v>
+        <v>0.4732755</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', 'ㄹ')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4933928333333333</v>
+        <v>0.4142913333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4732755</v>
+        <v>0.3788278333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('는', '데', '있')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4700353333333333</v>
+        <v>0.3540131666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('이', '같', '은')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4579195</v>
+        <v>0.3529153333333334</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4142913333333333</v>
+        <v>0.3391408333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('다는', '점', '의의')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4022396666666667</v>
+        <v>0.3380125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('학습자', '중심', '의')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3926716666666666</v>
+        <v>0.3299821666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('수준', '맞', '는')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.391329</v>
+        <v>0.3287463333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3788278333333333</v>
+        <v>0.3285248333333333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('의', '자기', '주도')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3712303333333333</v>
+        <v>0.3095598333333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('연구', '제시', 'ㄴ')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3604145</v>
+        <v>0.3029298333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3529153333333334</v>
+        <v>0.302825</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '기초', '자료')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3490993333333333</v>
+        <v>0.3006795</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('차', '산업', '혁명')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3391408333333333</v>
+        <v>0.297237</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3380125</v>
+        <v>0.2948153333333333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3299821666666667</v>
+        <v>0.2941888333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3287463333333333</v>
+        <v>0.2856438333333334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성', '위하')</t>
+          <t>('그', '효과', '검증')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3285248333333333</v>
+        <v>0.2837758333333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('ㄹ', '필요', '있')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3190685</v>
+        <v>0.280551</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원', '의')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3159098333333333</v>
+        <v>0.2796703333333334</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '인재', '양성')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.311336</v>
+        <v>0.2777275</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3095598333333333</v>
+        <v>0.274327</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('찾', '을', '수')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3078083333333333</v>
+        <v>0.2727291666666667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3029298333333333</v>
+        <v>0.2710826666666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '관심', '높')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.302825</v>
+        <v>0.2657258333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('학생', '명', '대상')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.297237</v>
+        <v>0.2581425</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2941888333333333</v>
+        <v>0.250007</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰', '기')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2856438333333334</v>
+        <v>0.244402</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.280551</v>
+        <v>0.2442385</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('학년', '학생', '명')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2777275</v>
+        <v>0.2355995</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2727291666666667</v>
+        <v>0.212729</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('유', '미', 'ㄴ')</t>
+          <t>('영향', '주', '것')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2724956666666667</v>
+        <v>0.2094438333333333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('분석', '그', '결과')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2710826666666667</v>
+        <v>0.2072218333333334</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2657258333333333</v>
+        <v>0.2045608333333334</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('향상', '긍정', 'ㄴ')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2616528333333333</v>
+        <v>0.2018648333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('분석', '분석', '결과')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2592571666666666</v>
+        <v>0.2018648333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2581425</v>
+        <v>0.199497</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2519456666666666</v>
+        <v>0.1957355</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.250007</v>
+        <v>0.1949423333333333</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('유', '미')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.244402</v>
+        <v>0.1939901666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2442385</v>
+        <v>0.1918991666666667</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('것', '알', '수')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.212729</v>
+        <v>0.180353</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2072218333333334</v>
+        <v>0.178455</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2045608333333334</v>
+        <v>0.1754901666666667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2018648333333333</v>
+        <v>0.1713738333333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2018648333333333</v>
+        <v>0.1699165</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.199497</v>
+        <v>0.1699101666666667</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1980871666666666</v>
+        <v>0.1669705</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1957355</v>
+        <v>0.1660396666666666</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.178455</v>
+        <v>0.1660396666666666</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('것', '알', 'ㄹ')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1766698333333333</v>
+        <v>0.1659685</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('그리', 'ㄴ', 'it')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1754901666666667</v>
+        <v>0.1654193333333333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('는', '영향', '분석')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1706303333333333</v>
+        <v>0.1528328333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린팅')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1699165</v>
+        <v>0.1510233333333333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1699101666666667</v>
+        <v>0.1491955</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1660396666666666</v>
+        <v>0.1490165</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1659685</v>
+        <v>0.1484415</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1654193333333333</v>
+        <v>0.1405911666666667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('영향', '주', '는')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1626593333333334</v>
+        <v>0.1404466666666667</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1570435</v>
+        <v>0.1326365</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1528328333333333</v>
+        <v>0.1322146666666666</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1510233333333333</v>
+        <v>0.1317805</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1490165</v>
+        <v>0.1304126666666667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1404466666666667</v>
+        <v>0.129634</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추', 'ㄴ')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1398228333333333</v>
+        <v>0.1247476666666667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1368481666666667</v>
+        <v>0.1234255</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('의', '스', '마')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1334133333333333</v>
+        <v>0.123287</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1326365</v>
+        <v>0.1220291666666667</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1322146666666666</v>
+        <v>0.1144965</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('t', '검정')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.129634</v>
+        <v>0.1123051666666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사', '사고력')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1247476666666667</v>
+        <v>0.1116285</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1234255</v>
+        <v>0.1084086666666667</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.123287</v>
+        <v>0.104346</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1220291666666667</v>
+        <v>0.104172</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1144965</v>
+        <v>0.09689383333333333</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서', '활용')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1140886666666667</v>
+        <v>0.09577516666666666</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1123051666666667</v>
+        <v>0.09567966666666666</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.104346</v>
+        <v>0.08339183333333333</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.09689383333333333</v>
+        <v>0.08095533333333332</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('앱', '개발', '교육')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.09577516666666666</v>
+        <v>0.08095533333333332</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.08482633333333334</v>
+        <v>0.06633549999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.08095533333333332</v>
+        <v>0.06234616666666667</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.06633549999999999</v>
+        <v>0.05280900000000001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.06234616666666667</v>
+        <v>0.04880183333333334</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.04880183333333334</v>
+        <v>0.04525183333333333</v>
       </c>
     </row>
     <row r="93">
@@ -1392,27 +1392,27 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.020741</v>
+        <v>0.02184916666666667</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.01585883333333335</v>
+        <v>0.020741</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1422,21 +1422,21 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('학습', '지속', '의향')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.008718333333333331</v>
+        <v>0.01585883333333335</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '활용', 'sw')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.003549499999999997</v>
+        <v>0.008718333333333331</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic7_candidates.xlsx
+++ b/datamining/final_data/topic7_candidates.xlsx
@@ -446,27 +446,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8744115</v>
+        <v>0.853999375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5941288333333333</v>
+        <v>0.5660633333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', '수')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5869686666666667</v>
+        <v>0.5652060416666667</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.568974</v>
+        <v>0.5438925</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5269043333333333</v>
+        <v>0.5094904166666666</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4732755</v>
+        <v>0.459999375</v>
       </c>
     </row>
     <row r="8">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4142913333333333</v>
+        <v>0.3904191666666667</v>
       </c>
     </row>
     <row r="9">
@@ -516,67 +516,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3788278333333333</v>
+        <v>0.3477822916666666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('있', '알', '수')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3540131666666667</v>
+        <v>0.328458125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3529153333333334</v>
+        <v>0.3266139583333334</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('차', '산업', '혁명')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3391408333333333</v>
+        <v>0.3265191666666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3380125</v>
+        <v>0.3200054166666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3299821666666667</v>
+        <v>0.3086985416666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3287463333333333</v>
+        <v>0.3003627083333333</v>
       </c>
     </row>
     <row r="16">
@@ -586,117 +586,117 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3285248333333333</v>
+        <v>0.3003285416666667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3095598333333333</v>
+        <v>0.2858897916666666</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3029298333333333</v>
+        <v>0.2852772916666667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('대하', '관심', '높')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.302825</v>
+        <v>0.2848166666666667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('향상', '긍정', '영향')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3006795</v>
+        <v>0.2780497916666667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('학생', '명', '대상')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.297237</v>
+        <v>0.2778285416666667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('전자', '책')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2948153333333333</v>
+        <v>0.276544375</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2941888333333333</v>
+        <v>0.27634875</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰', '기')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2856438333333334</v>
+        <v>0.2719812500000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('그', '효과', '검증')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2837758333333333</v>
+        <v>0.26468375</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.280551</v>
+        <v>0.2634779166666667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('교육', '프로그래밍', '언어')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2796703333333334</v>
+        <v>0.2599214583333334</v>
       </c>
     </row>
     <row r="28">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2777275</v>
+        <v>0.2598843750000001</v>
       </c>
     </row>
     <row r="29">
@@ -716,17 +716,17 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.274327</v>
+        <v>0.25937375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('그', '효과', '검증')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2727291666666667</v>
+        <v>0.2586022916666667</v>
       </c>
     </row>
     <row r="31">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2710826666666667</v>
+        <v>0.2454583333333334</v>
       </c>
     </row>
     <row r="32">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2657258333333333</v>
+        <v>0.2437397916666666</v>
       </c>
     </row>
     <row r="33">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2581425</v>
+        <v>0.243663125</v>
       </c>
     </row>
     <row r="34">
@@ -766,27 +766,27 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.250007</v>
+        <v>0.23340375</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('유', '미')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.244402</v>
+        <v>0.222213125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2442385</v>
+        <v>0.2217375</v>
       </c>
     </row>
     <row r="37">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2355995</v>
+        <v>0.214654375</v>
       </c>
     </row>
     <row r="38">
@@ -806,117 +806,117 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.212729</v>
+        <v>0.19750375</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('영향', '주', '것')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2094438333333333</v>
+        <v>0.18798375</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('영향', '주', '것')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2072218333333334</v>
+        <v>0.1877222916666667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2045608333333334</v>
+        <v>0.1849610416666667</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2018648333333333</v>
+        <v>0.1849610416666667</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2018648333333333</v>
+        <v>0.183994375</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.199497</v>
+        <v>0.1826679166666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1957355</v>
+        <v>0.1791747916666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1949423333333333</v>
+        <v>0.1785635416666667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('영향', '미치', '것')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1939901666666667</v>
+        <v>0.1715389583333334</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1918991666666667</v>
+        <v>0.1711177083333333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('것', '알', '수')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.180353</v>
+        <v>0.1695927083333333</v>
       </c>
     </row>
     <row r="50">
@@ -926,177 +926,177 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.178455</v>
+        <v>0.16638875</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('그리', 'it')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1754901666666667</v>
+        <v>0.164670625</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1713738333333333</v>
+        <v>0.1582677083333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린팅')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1699165</v>
+        <v>0.1579316666666666</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('것', '알', '수')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1699101666666667</v>
+        <v>0.15516875</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('미치', '영향', '분석')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1669705</v>
+        <v>0.153305625</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단', '통제')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1660396666666666</v>
+        <v>0.1498197916666666</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1660396666666666</v>
+        <v>0.146000625</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1659685</v>
+        <v>0.1410191666666667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1654193333333333</v>
+        <v>0.140809375</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1528328333333333</v>
+        <v>0.1402395833333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1510233333333333</v>
+        <v>0.1402395833333333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1491955</v>
+        <v>0.1396435416666666</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1490165</v>
+        <v>0.139306875</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서', '사용')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1484415</v>
+        <v>0.137303125</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독', '치료')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1405911666666667</v>
+        <v>0.1341608333333333</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1404466666666667</v>
+        <v>0.1320664583333334</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1326365</v>
+        <v>0.126085625</v>
       </c>
     </row>
     <row r="68">
@@ -1106,167 +1106,167 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1322146666666666</v>
+        <v>0.1253858333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '활용')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1317805</v>
+        <v>0.117776875</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('이', '따르', '논문')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1304126666666667</v>
+        <v>0.1168114583333333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('t', '검정')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.129634</v>
+        <v>0.116023125</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사', '사고력')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1247476666666667</v>
+        <v>0.11470875</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1234255</v>
+        <v>0.1141670833333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.123287</v>
+        <v>0.1083683333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1220291666666667</v>
+        <v>0.0997575</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1144965</v>
+        <v>0.099473125</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1123051666666667</v>
+        <v>0.09913312499999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('학습', '방법', '평가')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1116285</v>
+        <v>0.09678</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('방법', '평가', '방법')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1084086666666667</v>
+        <v>0.09521250000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.104346</v>
+        <v>0.09328583333333333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서', '활용')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.104172</v>
+        <v>0.09215729166666667</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.09689383333333333</v>
+        <v>0.09094395833333332</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('앱', '개발', '교육')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.09577516666666666</v>
+        <v>0.08718458333333332</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '의식')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.09567966666666666</v>
+        <v>0.08229645833333332</v>
       </c>
     </row>
     <row r="85">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.08339183333333333</v>
+        <v>0.07663479166666667</v>
       </c>
     </row>
     <row r="86">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.08095533333333332</v>
+        <v>0.07442416666666665</v>
       </c>
     </row>
     <row r="87">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.08095533333333332</v>
+        <v>0.07442416666666665</v>
       </c>
     </row>
     <row r="88">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.06633549999999999</v>
+        <v>0.06257437499999999</v>
       </c>
     </row>
     <row r="89">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.06234616666666667</v>
+        <v>0.05743270833333333</v>
       </c>
     </row>
     <row r="90">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.05280900000000001</v>
+        <v>0.04791125</v>
       </c>
     </row>
     <row r="91">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.04880183333333334</v>
+        <v>0.04450979166666667</v>
       </c>
     </row>
     <row r="92">
@@ -1346,27 +1346,27 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.04525183333333333</v>
+        <v>0.03733479166666667</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.0431465</v>
+        <v>0.03609208333333333</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.04156366666666667</v>
+        <v>0.03339812500000001</v>
       </c>
     </row>
     <row r="95">
@@ -1376,67 +1376,67 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.03805266666666667</v>
+        <v>0.03031833333333333</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't', '검정')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.02544966666666665</v>
+        <v>0.01796895833333333</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('정보', '과학', '영재')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.02184916666666667</v>
+        <v>0.01217125</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.020741</v>
+        <v>0.004557916666666665</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.01585883333333335</v>
+        <v>-0.004797916666666679</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.01585883333333335</v>
+        <v>-0.01563395833333331</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('학습', '지속', '의향')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.008718333333333331</v>
+        <v>-0.01563395833333331</v>
       </c>
     </row>
   </sheetData>
